--- a/data/trans_orig/P57_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>25252</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16748</v>
+        <v>16192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38311</v>
+        <v>37534</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06020064529728467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03992697462558574</v>
+        <v>0.03860193695569564</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09133417323387918</v>
+        <v>0.08948009083327953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -763,19 +763,19 @@
         <v>27312</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18845</v>
+        <v>18637</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38569</v>
+        <v>38489</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06954170886140015</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04798340413343304</v>
+        <v>0.04745390719188875</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09820475982358864</v>
+        <v>0.09800000727009618</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -784,19 +784,19 @@
         <v>52564</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39170</v>
+        <v>39608</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67693</v>
+        <v>67345</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06471753742925379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0482270309104009</v>
+        <v>0.04876588341029298</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08334392431442331</v>
+        <v>0.08291638947882995</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>394211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>381152</v>
+        <v>381929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>402715</v>
+        <v>403271</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9397993547027154</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.908665826766121</v>
+        <v>0.9105199091667205</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9600730253744142</v>
+        <v>0.9613980630443044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>373</v>
@@ -834,19 +834,19 @@
         <v>365433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>354176</v>
+        <v>354256</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>373900</v>
+        <v>374108</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9304582911385999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9017952401764117</v>
+        <v>0.9019999927299041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9520165958665671</v>
+        <v>0.9525460928081113</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>745</v>
@@ -855,19 +855,19 @@
         <v>759644</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>744515</v>
+        <v>744863</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>773038</v>
+        <v>772600</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9352824625707462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9166560756855767</v>
+        <v>0.9170836105211699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9517729690895991</v>
+        <v>0.951234116589707</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>75801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58801</v>
+        <v>60645</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92175</v>
+        <v>94569</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1293625996766724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1003502218956365</v>
+        <v>0.1034969227857879</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1573068353680847</v>
+        <v>0.1613928131780831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -980,19 +980,19 @@
         <v>61749</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48827</v>
+        <v>47970</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77498</v>
+        <v>76119</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1104467847418345</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08733245214846019</v>
+        <v>0.08579955672948558</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1386147759048918</v>
+        <v>0.1361491764232472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>133</v>
@@ -1001,19 +1001,19 @@
         <v>137550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>115434</v>
+        <v>116666</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159878</v>
+        <v>161249</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1201266112911232</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.100812066094671</v>
+        <v>0.101888287530123</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1396266326276832</v>
+        <v>0.1408233064151304</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>510154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493780</v>
+        <v>491386</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>527154</v>
+        <v>525310</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8706374003233276</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8426931646319152</v>
+        <v>0.8386071868219168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8996497781043634</v>
+        <v>0.896503077214212</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>512</v>
@@ -1051,19 +1051,19 @@
         <v>497339</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>481590</v>
+        <v>482969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>510261</v>
+        <v>511118</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8895532152581656</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8613852240951081</v>
+        <v>0.8638508235767527</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9126675478515398</v>
+        <v>0.9142004432705144</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1005</v>
@@ -1072,19 +1072,19 @@
         <v>1007493</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>985165</v>
+        <v>983794</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1029609</v>
+        <v>1028377</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8798733887088768</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8603733673723168</v>
+        <v>0.8591766935848697</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.899187933905329</v>
+        <v>0.8981117124698773</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>95957</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79254</v>
+        <v>79293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116227</v>
+        <v>116195</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1440181995122714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1189495544448829</v>
+        <v>0.1190073057398318</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1744404439509383</v>
+        <v>0.1743922317700506</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -1197,19 +1197,19 @@
         <v>91610</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76011</v>
+        <v>74814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110218</v>
+        <v>110270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1387087095183519</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1150890646413142</v>
+        <v>0.1132769260954531</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1668822190535034</v>
+        <v>0.1669608086932787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -1218,19 +1218,19 @@
         <v>187567</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163747</v>
+        <v>163683</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>213383</v>
+        <v>215620</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1413751257591418</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.123421312567132</v>
+        <v>0.1233723444956692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1608332877024719</v>
+        <v>0.1625189850231261</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>570328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>550058</v>
+        <v>550090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>587031</v>
+        <v>586992</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8559818004877285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8255595560490618</v>
+        <v>0.8256077682299499</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8810504455551172</v>
+        <v>0.8809926942601682</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>572</v>
@@ -1268,19 +1268,19 @@
         <v>568842</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>550234</v>
+        <v>550182</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>584441</v>
+        <v>585638</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8612912904816481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8331177809464967</v>
+        <v>0.8330391913067213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8849109353586857</v>
+        <v>0.8867230739045472</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1116</v>
@@ -1289,19 +1289,19 @@
         <v>1139169</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1113353</v>
+        <v>1111116</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1162989</v>
+        <v>1163053</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8586248742408582</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8391667122975282</v>
+        <v>0.8374810149768739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.876578687432868</v>
+        <v>0.8766276555043306</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>140455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116901</v>
+        <v>120566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161530</v>
+        <v>163912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2185049395024909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1818620692517179</v>
+        <v>0.1875639639514975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2512908716671945</v>
+        <v>0.2549975775557329</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -1414,19 +1414,19 @@
         <v>143154</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123818</v>
+        <v>122241</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166691</v>
+        <v>166646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2216811165329072</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1917385408922421</v>
+        <v>0.1892957181853284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2581285543433468</v>
+        <v>0.2580589873398758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>259</v>
@@ -1435,19 +1435,19 @@
         <v>283609</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>252703</v>
+        <v>253452</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>315571</v>
+        <v>312861</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2200966825472508</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1961120953235828</v>
+        <v>0.196693264048428</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2449011605125388</v>
+        <v>0.2427978119406115</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>502345</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>481270</v>
+        <v>478888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>525899</v>
+        <v>522234</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7814950604975091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7487091283328056</v>
+        <v>0.7450024224442675</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8181379307482821</v>
+        <v>0.8124360360485028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>467</v>
@@ -1485,19 +1485,19 @@
         <v>502612</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479075</v>
+        <v>479120</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>521948</v>
+        <v>523525</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7783188834670928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7418714456566532</v>
+        <v>0.7419410126601242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8082614591077579</v>
+        <v>0.8107042818146716</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>919</v>
@@ -1506,19 +1506,19 @@
         <v>1004957</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>972995</v>
+        <v>975705</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1035863</v>
+        <v>1035114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7799033174527492</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.755098839487461</v>
+        <v>0.7572021880593883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8038879046764171</v>
+        <v>0.8033067359515719</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>93311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74736</v>
+        <v>76266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111758</v>
+        <v>111286</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1956812064525066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1567261842337787</v>
+        <v>0.1599351050773123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2343656667661126</v>
+        <v>0.233374628492037</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>147</v>
@@ -1631,19 +1631,19 @@
         <v>166682</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>144077</v>
+        <v>146342</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>188867</v>
+        <v>189658</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3361851195751504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2905942217391284</v>
+        <v>0.2951607360600241</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3809321926896814</v>
+        <v>0.3825262317913022</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>229</v>
@@ -1652,19 +1652,19 @@
         <v>259993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>228525</v>
+        <v>233900</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>291622</v>
+        <v>291194</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2673018315608444</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2349488402820122</v>
+        <v>0.2404749261450034</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2998197641580211</v>
+        <v>0.2993799330058257</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>383543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>365096</v>
+        <v>365568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>402118</v>
+        <v>400588</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8043187935474935</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7656343332338879</v>
+        <v>0.7666253715079629</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8432738157662214</v>
+        <v>0.8400648949226875</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>285</v>
@@ -1702,19 +1702,19 @@
         <v>329121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>306936</v>
+        <v>306145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>351726</v>
+        <v>349461</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6638148804248496</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6190678073103191</v>
+        <v>0.6174737682086978</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7094057782608719</v>
+        <v>0.704839263939976</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>626</v>
@@ -1723,19 +1723,19 @@
         <v>712664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>681035</v>
+        <v>681463</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>744132</v>
+        <v>738757</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7326981684391556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7001802358419789</v>
+        <v>0.7006200669941741</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7650511597179875</v>
+        <v>0.7595250738549966</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>91039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74960</v>
+        <v>76107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107911</v>
+        <v>110044</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2739007964342738</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2255263363912659</v>
+        <v>0.2289763873498182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3246625472422109</v>
+        <v>0.3310795068775191</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>136</v>
@@ -1848,19 +1848,19 @@
         <v>143812</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>125606</v>
+        <v>125014</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>163284</v>
+        <v>162686</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3806943472141406</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3325008133533755</v>
+        <v>0.3309320006972104</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4322396692584132</v>
+        <v>0.4306568618941472</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>226</v>
@@ -1869,19 +1869,19 @@
         <v>234850</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>209494</v>
+        <v>211031</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>262295</v>
+        <v>259866</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3307100763747159</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2950041857406991</v>
+        <v>0.297167947481316</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3693569548139777</v>
+        <v>0.3659367073925697</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>241339</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224467</v>
+        <v>222334</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257418</v>
+        <v>256271</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7260992035657261</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6753374527577892</v>
+        <v>0.668920493122481</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7744736636087342</v>
+        <v>0.7710236126501818</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>218</v>
@@ -1919,19 +1919,19 @@
         <v>233950</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>214478</v>
+        <v>215076</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252156</v>
+        <v>252748</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6193056527858595</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.567760330741587</v>
+        <v>0.5693431381058531</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6674991866466246</v>
+        <v>0.6690679993027897</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>451</v>
@@ -1940,19 +1940,19 @@
         <v>475290</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>447845</v>
+        <v>450274</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>500646</v>
+        <v>499109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6692899236252841</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6306430451860224</v>
+        <v>0.6340632926074303</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7049958142593012</v>
+        <v>0.7028320525186841</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>104278</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90022</v>
+        <v>90132</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>118971</v>
+        <v>118888</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4057553785962787</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3502828519845197</v>
+        <v>0.3507109141999301</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4629264819012402</v>
+        <v>0.4626036163622643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>146</v>
@@ -2065,19 +2065,19 @@
         <v>193584</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>172024</v>
+        <v>169467</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>216654</v>
+        <v>215724</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.488246117513527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4338702600585331</v>
+        <v>0.4274204529544929</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5464331165881561</v>
+        <v>0.5440864261308982</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>269</v>
@@ -2086,19 +2086,19 @@
         <v>297862</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>272011</v>
+        <v>271548</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>323895</v>
+        <v>326617</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4558047712677218</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4162453599318683</v>
+        <v>0.4155370607894189</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4956423523230276</v>
+        <v>0.4998076907332616</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>152720</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>138027</v>
+        <v>138110</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>166976</v>
+        <v>166866</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5942446214037213</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5370735180987598</v>
+        <v>0.5373963836377358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6497171480154801</v>
+        <v>0.6492890858000701</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>152</v>
@@ -2136,19 +2136,19 @@
         <v>202904</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>179834</v>
+        <v>180764</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>224464</v>
+        <v>227021</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5117538824864729</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4535668834118435</v>
+        <v>0.4559135738691018</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.566129739941467</v>
+        <v>0.5725795470455067</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>331</v>
@@ -2157,19 +2157,19 @@
         <v>355624</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>329591</v>
+        <v>326869</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>381475</v>
+        <v>381938</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5441952287322781</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5043576476769723</v>
+        <v>0.5001923092667384</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5837546400681317</v>
+        <v>0.5844629392105811</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>626093</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>577116</v>
+        <v>584807</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>670654</v>
+        <v>674422</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1851944719938939</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1707073336214035</v>
+        <v>0.1729822099273633</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1983752476282493</v>
+        <v>0.1994897947502547</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>744</v>
@@ -2282,19 +2282,19 @@
         <v>827903</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>775160</v>
+        <v>778765</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>882754</v>
+        <v>879791</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2346595739920796</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.219710047699913</v>
+        <v>0.2207318029974446</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.250206332246964</v>
+        <v>0.2493665405068524</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1348</v>
@@ -2303,19 +2303,19 @@
         <v>1453996</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1384900</v>
+        <v>1382698</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1520897</v>
+        <v>1523606</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2104545862147991</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2004534506469918</v>
+        <v>0.2001346877096224</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2201378742600735</v>
+        <v>0.2205299945812986</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>2754640</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2710079</v>
+        <v>2706311</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2803617</v>
+        <v>2795926</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8148055280061061</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8016247523717506</v>
+        <v>0.8005102052497453</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8292926663785961</v>
+        <v>0.8270177900726366</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2579</v>
@@ -2353,19 +2353,19 @@
         <v>2700201</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2645350</v>
+        <v>2648313</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2752944</v>
+        <v>2749339</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7653404260079204</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7497936677530361</v>
+        <v>0.7506334594931477</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7802899523000872</v>
+        <v>0.7792681970025555</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5193</v>
@@ -2374,19 +2374,19 @@
         <v>5454841</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5387940</v>
+        <v>5385231</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5523937</v>
+        <v>5526139</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7895454137852009</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7798621257399264</v>
+        <v>0.7794700054187014</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7995465493530082</v>
+        <v>0.7998653122903776</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>13895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5067</v>
+        <v>5598</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27342</v>
+        <v>27998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03407411760820488</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01242503192047615</v>
+        <v>0.01372835397378692</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06704788628277242</v>
+        <v>0.06865635523986179</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2742,19 +2742,19 @@
         <v>27283</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15496</v>
+        <v>14448</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44741</v>
+        <v>41602</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07525996059304554</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04274688548965815</v>
+        <v>0.03985438231156046</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1234188018976441</v>
+        <v>0.1147613647841739</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -2763,19 +2763,19 @@
         <v>41178</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25928</v>
+        <v>26668</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62382</v>
+        <v>64393</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05345651880231227</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03365904926136439</v>
+        <v>0.03461948326483481</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08098311976856261</v>
+        <v>0.08359462075101376</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>393898</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380451</v>
+        <v>379795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>402726</v>
+        <v>402195</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9659258823917953</v>
+        <v>0.9659258823917952</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9329521137172276</v>
+        <v>0.9313436447601388</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9875749680795238</v>
+        <v>0.9862716460262131</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -2813,19 +2813,19 @@
         <v>335229</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>317771</v>
+        <v>320910</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347016</v>
+        <v>348064</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9247400394069544</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8765811981023558</v>
+        <v>0.8852386352158261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9572531145103417</v>
+        <v>0.9601456176884396</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>357</v>
@@ -2834,19 +2834,19 @@
         <v>729127</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>707923</v>
+        <v>705912</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>744377</v>
+        <v>743637</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9465434811976878</v>
+        <v>0.9465434811976877</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9190168802314375</v>
+        <v>0.9164053792489864</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9663409507386357</v>
+        <v>0.9653805167351652</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>38858</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26692</v>
+        <v>23983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58196</v>
+        <v>57164</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08148132350105167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05597046798337142</v>
+        <v>0.05029002328420758</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1220317050586741</v>
+        <v>0.1198687572362769</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -2959,19 +2959,19 @@
         <v>35483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25403</v>
+        <v>24085</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49007</v>
+        <v>50234</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07095327034515253</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05079589375841964</v>
+        <v>0.04816173242556124</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09799639201678124</v>
+        <v>0.1004498096202438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -2980,19 +2980,19 @@
         <v>74341</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56145</v>
+        <v>56890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94982</v>
+        <v>97272</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07609228319719566</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05746778108303627</v>
+        <v>0.05823044331955632</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0972201312053584</v>
+        <v>0.09956354961293937</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>438032</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>418694</v>
+        <v>419726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450198</v>
+        <v>452907</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9185186764989481</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8779682949413252</v>
+        <v>0.880131242763725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9440295320166284</v>
+        <v>0.9497099767157926</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>427</v>
@@ -3030,19 +3030,19 @@
         <v>464609</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>451085</v>
+        <v>449858</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>474689</v>
+        <v>476007</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9290467296548475</v>
+        <v>0.9290467296548476</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9020036079832184</v>
+        <v>0.8995501903797561</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9492041062415802</v>
+        <v>0.9518382675744386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>705</v>
@@ -3051,19 +3051,19 @@
         <v>902641</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>882000</v>
+        <v>879710</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>920837</v>
+        <v>920092</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9239077168028044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9027798687946416</v>
+        <v>0.9004364503870605</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9425322189169637</v>
+        <v>0.9417695566804436</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>52566</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39867</v>
+        <v>38393</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68616</v>
+        <v>68995</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08466973710456091</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0642152552675668</v>
+        <v>0.06184131568469077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1105223672707864</v>
+        <v>0.1111329957411164</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -3176,19 +3176,19 @@
         <v>46362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36654</v>
+        <v>36864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58942</v>
+        <v>59891</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07461822517513822</v>
+        <v>0.07461822517513823</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0589930510467787</v>
+        <v>0.05933034649374187</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09486407248716459</v>
+        <v>0.09639172627688511</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -3197,19 +3197,19 @@
         <v>98928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83094</v>
+        <v>82823</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118097</v>
+        <v>118920</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07964199113599099</v>
+        <v>0.07964199113599098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0668945430794472</v>
+        <v>0.06667628040941501</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0950739059345021</v>
+        <v>0.09573618520124072</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>568271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>552221</v>
+        <v>551842</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>580970</v>
+        <v>582444</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9153302628954392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8894776327292135</v>
+        <v>0.8888670042588835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9357847447324333</v>
+        <v>0.9381586843153091</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>781</v>
@@ -3247,19 +3247,19 @@
         <v>574967</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>562387</v>
+        <v>561438</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>584675</v>
+        <v>584465</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9253817748248619</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9051359275128354</v>
+        <v>0.9036082737231149</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9410069489532211</v>
+        <v>0.9406696535062582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1280</v>
@@ -3268,19 +3268,19 @@
         <v>1143237</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1124068</v>
+        <v>1123245</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1159071</v>
+        <v>1159342</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9203580088640089</v>
+        <v>0.9203580088640091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.904926094065498</v>
+        <v>0.9042638147987595</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9331054569205528</v>
+        <v>0.9333237195905851</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>74125</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59282</v>
+        <v>58044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91198</v>
+        <v>92864</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1057993092594373</v>
+        <v>0.1057993092594372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08461388110914814</v>
+        <v>0.08284672958002372</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1301681895681038</v>
+        <v>0.1325466206705892</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>168</v>
@@ -3393,19 +3393,19 @@
         <v>113717</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99393</v>
+        <v>97186</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130471</v>
+        <v>129824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1554829513635872</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1358973204199262</v>
+        <v>0.1328796889601623</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1783890115245748</v>
+        <v>0.1775047609325498</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -3414,19 +3414,19 @@
         <v>187842</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164468</v>
+        <v>165647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>212522</v>
+        <v>212465</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1311748187360707</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1148519677453203</v>
+        <v>0.1156756007285128</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1484092624258108</v>
+        <v>0.1483697551421285</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>626492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>609419</v>
+        <v>607753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>641335</v>
+        <v>642573</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8942006907405629</v>
+        <v>0.8942006907405627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8698318104318961</v>
+        <v>0.8674533793294108</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.915386118890852</v>
+        <v>0.9171532704199764</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>965</v>
@@ -3464,19 +3464,19 @@
         <v>617665</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>600911</v>
+        <v>601558</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>631989</v>
+        <v>634196</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8445170486364127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8216109884754249</v>
+        <v>0.8224952390674503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8641026795800736</v>
+        <v>0.8671203110398377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1555</v>
@@ -3485,19 +3485,19 @@
         <v>1244157</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1219477</v>
+        <v>1219534</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1267531</v>
+        <v>1266352</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8688251812639293</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8515907375741891</v>
+        <v>0.8516302448578716</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8851480322546799</v>
+        <v>0.8843243992714874</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>125528</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109021</v>
+        <v>107269</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>143734</v>
+        <v>143831</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2074251652605785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1801482839869649</v>
+        <v>0.1772538228792621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2375104956403193</v>
+        <v>0.2376696547725462</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>242</v>
@@ -3610,19 +3610,19 @@
         <v>153353</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>138242</v>
+        <v>138289</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170874</v>
+        <v>169679</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2531615315685092</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2282152698232488</v>
+        <v>0.2282927262764189</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2820854967314335</v>
+        <v>0.2801129550387044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>384</v>
@@ -3631,19 +3631,19 @@
         <v>278881</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>252536</v>
+        <v>255100</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>305307</v>
+        <v>302736</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2303043181092441</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2085485887207009</v>
+        <v>0.2106657083292715</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2521275956441487</v>
+        <v>0.2500042096934445</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>479643</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>461437</v>
+        <v>461340</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>496150</v>
+        <v>497902</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7925748347394217</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7624895043596808</v>
+        <v>0.7623303452274537</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8198517160130351</v>
+        <v>0.8227461771207378</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>755</v>
@@ -3681,19 +3681,19 @@
         <v>452399</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>434878</v>
+        <v>436073</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>467510</v>
+        <v>467463</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7468384684314907</v>
+        <v>0.7468384684314908</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7179145032685667</v>
+        <v>0.7198870449612955</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7717847301767514</v>
+        <v>0.7717072737235802</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1273</v>
@@ -3702,19 +3702,19 @@
         <v>932043</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>905617</v>
+        <v>908188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>958388</v>
+        <v>955824</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7696956818907561</v>
+        <v>0.769695681890756</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7478724043558513</v>
+        <v>0.7499957903065554</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7914514112792992</v>
+        <v>0.7893342916707284</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>73833</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61574</v>
+        <v>62222</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87510</v>
+        <v>88424</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1823710009715196</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1520893396283736</v>
+        <v>0.1536904833770694</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2161517145397539</v>
+        <v>0.2184104485975404</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>197</v>
@@ -3827,19 +3827,19 @@
         <v>109333</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>96745</v>
+        <v>97102</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122746</v>
+        <v>123037</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2495753433050164</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2208389377005209</v>
+        <v>0.2216543679900007</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2801917093754004</v>
+        <v>0.2808559399254426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>308</v>
@@ -3848,19 +3848,19 @@
         <v>183167</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>166982</v>
+        <v>165425</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>201393</v>
+        <v>201993</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2172976229541486</v>
+        <v>0.2172976229541485</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1980966401954746</v>
+        <v>0.1962501397904934</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2389202953730767</v>
+        <v>0.2396313647477508</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>331020</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>317343</v>
+        <v>316429</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>343279</v>
+        <v>342631</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8176289990284804</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.783848285460246</v>
+        <v>0.7815895514024598</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8479106603716265</v>
+        <v>0.8463095166229307</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>628</v>
@@ -3898,19 +3898,19 @@
         <v>328745</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>315332</v>
+        <v>315041</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>341333</v>
+        <v>340976</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7504246566949836</v>
+        <v>0.7504246566949837</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7198082906245999</v>
+        <v>0.7191440600745574</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.779161062299479</v>
+        <v>0.7783456320099995</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1084</v>
@@ -3919,19 +3919,19 @@
         <v>659764</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>641538</v>
+        <v>640938</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>675949</v>
+        <v>677506</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7827023770458515</v>
+        <v>0.7827023770458517</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.761079704626923</v>
+        <v>0.7603686352522492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8019033598045251</v>
+        <v>0.8037498602095062</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>93002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81323</v>
+        <v>81015</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106881</v>
+        <v>108314</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3042943453097827</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2660821514622817</v>
+        <v>0.2650755229579138</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3497050629077653</v>
+        <v>0.3543961891420499</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>302</v>
@@ -4044,19 +4044,19 @@
         <v>156425</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>142181</v>
+        <v>141882</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>172597</v>
+        <v>170957</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3448731168381207</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3134678296378986</v>
+        <v>0.3128096509478966</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.380526172442386</v>
+        <v>0.376911849032468</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>451</v>
@@ -4065,19 +4065,19 @@
         <v>249427</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230621</v>
+        <v>230085</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>270454</v>
+        <v>272105</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.328537419290821</v>
+        <v>0.3285374192908211</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.303765882607823</v>
+        <v>0.3030610136967039</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3562334906654785</v>
+        <v>0.3584073683860816</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>212629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>198750</v>
+        <v>197317</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>224308</v>
+        <v>224616</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6957056546902172</v>
+        <v>0.6957056546902171</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6502949370922345</v>
+        <v>0.6456038108579499</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7339178485377182</v>
+        <v>0.7349244770420861</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>556</v>
@@ -4115,19 +4115,19 @@
         <v>297149</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>280977</v>
+        <v>282617</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>311393</v>
+        <v>311692</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6551268831618793</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6194738275576139</v>
+        <v>0.6230881509675319</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6865321703621015</v>
+        <v>0.687190349052103</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>858</v>
@@ -4136,19 +4136,19 @@
         <v>509778</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>488751</v>
+        <v>487100</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>528584</v>
+        <v>529120</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6714625807091789</v>
+        <v>0.6714625807091791</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6437665093345214</v>
+        <v>0.6415926316139184</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.696234117392177</v>
+        <v>0.6969389863032961</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>471807</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>433583</v>
+        <v>434855</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>511478</v>
+        <v>512820</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1339677865919414</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1231141641721879</v>
+        <v>0.1234753428602749</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1452323958679781</v>
+        <v>0.1456134641083238</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1020</v>
@@ -4261,19 +4261,19 @@
         <v>641958</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>605434</v>
+        <v>605289</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>683941</v>
+        <v>682871</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.172907693320954</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1630702137096631</v>
+        <v>0.1630313437769726</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1842156193730836</v>
+        <v>0.1839276127373952</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1575</v>
@@ -4282,19 +4282,19 @@
         <v>1113764</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1060791</v>
+        <v>1059079</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1169709</v>
+        <v>1170712</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1539515686949145</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1466292581199869</v>
+        <v>0.1463926198690921</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1616845678838601</v>
+        <v>0.1618231883948152</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>3049986</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3010315</v>
+        <v>3008973</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3088210</v>
+        <v>3086938</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8660322134080586</v>
+        <v>0.8660322134080585</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.854767604132022</v>
+        <v>0.8543865358916766</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8768858358278123</v>
+        <v>0.8765246571397253</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4304</v>
@@ -4332,19 +4332,19 @@
         <v>3070760</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3028777</v>
+        <v>3029847</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3107284</v>
+        <v>3107429</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8270923066790459</v>
+        <v>0.8270923066790461</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8157843806269164</v>
+        <v>0.8160723872626049</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8369297862903368</v>
+        <v>0.8369686562230279</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7112</v>
@@ -4353,19 +4353,19 @@
         <v>6120747</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6064802</v>
+        <v>6063799</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6173720</v>
+        <v>6175432</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8460484313050853</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8383154321161397</v>
+        <v>0.8381768116051848</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8533707418800128</v>
+        <v>0.8536073801309079</v>
       </c>
     </row>
     <row r="27">
